--- a/InputData/plcy-schd/FT/Final Time.xlsx
+++ b/InputData/plcy-schd/FT/Final Time.xlsx
@@ -755,13 +755,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4957E8DF-DD8F-49E6-AB02-F9E7B71236B1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A0D8B75-61C5-42EA-96EF-73D1678545CE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F88542C-1899-428A-B539-7CE6FCA7A5AB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B808968-C7ED-4274-9CDA-F08EC88A1F1C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{902A00E3-93F1-4A3D-955A-A0ADBCE09DB8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41034CF9-D00B-4F64-90C2-8EB2F57F515D}"/>
 </file>